--- a/Generating Results/box_wing_datatable.xlsx
+++ b/Generating Results/box_wing_datatable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theha\Desktop\Github_Repositories\Thesis\Generating Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7429DDB4-84B4-4599-915A-7A8359FD4675}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64EEF59B-8BF9-466B-9654-C8B925FADABF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -965,417 +965,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="49">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1766,12 +1356,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS97"/>
+  <dimension ref="A1:AS98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
       <selection activeCell="A31" sqref="A31"/>
-      <selection pane="topRight" activeCell="Z96" sqref="Z96"/>
+      <selection pane="topRight" activeCell="AB94" sqref="AB94:AB95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11395,25 +10985,49 @@
         <f>AVERAGE(B45,B36)</f>
         <v>1.5217360003529551E-2</v>
       </c>
+      <c r="D94">
+        <f>AVERAGE(D45,D36)</f>
+        <v>8.6483022535618836</v>
+      </c>
       <c r="E94">
         <f>AVERAGE(E73,E69,E38)</f>
         <v>5.253740414945497E-3</v>
       </c>
+      <c r="G94">
+        <f>AVERAGE(G73,G69,G38)</f>
+        <v>4.0422719030758048</v>
+      </c>
       <c r="H94">
         <f>AVERAGE(H88,H45,H38)</f>
         <v>5.7033543577284631E-3</v>
       </c>
+      <c r="J94">
+        <f>AVERAGE(J88,J45,J38)</f>
+        <v>5.1645578463558897</v>
+      </c>
       <c r="T94">
         <f>AVERAGE(T88,T80,T71,T51,T45)</f>
         <v>2.5058670272982858E-3</v>
       </c>
+      <c r="V94">
+        <f>AVERAGE(V88,V80,V71,V51,V45)</f>
+        <v>0.96852611883735817</v>
+      </c>
       <c r="W94">
         <f>AVERAGE(W71,W45)</f>
         <v>2.1112956351806798E-3</v>
       </c>
+      <c r="Y94">
+        <f>AVERAGE(Y71,Y45)</f>
+        <v>1.3996119964658149</v>
+      </c>
       <c r="Z94">
         <f>AVERAGE(Z83,Z51,Z45,Z38)</f>
         <v>5.7117368022802399E-3</v>
+      </c>
+      <c r="AB94">
+        <f>AVERAGE(AB83,AB51,AB45,AB38)</f>
+        <v>3.8850642909659423</v>
       </c>
     </row>
     <row r="95" spans="1:45" x14ac:dyDescent="0.3">
@@ -11424,25 +11038,49 @@
         <f>STDEV(B45,B36)/SQRT(COUNT(B45,B36))</f>
         <v>3.3981007172415442E-3</v>
       </c>
+      <c r="D95">
+        <f>STDEV(D45,D36)/SQRT(COUNT(D45,D36))</f>
+        <v>0.55454562420272513</v>
+      </c>
       <c r="E95">
         <f>STDEV(E73,E69,E38)/SQRT(COUNT(E73,E69,E38))</f>
         <v>2.5522408396058552E-3</v>
       </c>
+      <c r="G95">
+        <f>STDEV(G73,G69,G38)/SQRT(COUNT(G73,G69,G38))</f>
+        <v>1.9624917574129332</v>
+      </c>
       <c r="H95">
         <f>STDEV(H88,H45,H38)/SQRT(COUNT(H88,H45,H38))</f>
         <v>2.1450917509481028E-3</v>
       </c>
+      <c r="J95">
+        <f>STDEV(J88,J45,J38)/SQRT(COUNT(J88,J45,J38))</f>
+        <v>1.8946298698477348</v>
+      </c>
       <c r="T95">
         <f>STDEV(T88,T80,T71,T51,T45)/SQRT(COUNT(T88,T80,T71,T51,T45))</f>
         <v>8.5719693983671178E-4</v>
       </c>
+      <c r="V95">
+        <f>STDEV(V88,V80,V71,V51,V45)/SQRT(COUNT(V88,V80,V71,V51,V45))</f>
+        <v>0.27996090987192984</v>
+      </c>
       <c r="W95">
         <f>STDEV(W71,W45)/SQRT(COUNT(W71,W45))</f>
         <v>2.1942848100990988E-4</v>
       </c>
+      <c r="Y95">
+        <f>STDEV(Y71,Y45)/SQRT(COUNT(Y71,Y45))</f>
+        <v>0.25923289606531563</v>
+      </c>
       <c r="Z95">
         <f>STDEV(Z83,Z51,Z45,Z38)/SQRT(COUNT(Z83,Z51,Z45,Z38))</f>
         <v>2.3755175189520343E-3</v>
+      </c>
+      <c r="AB95">
+        <f>STDEV(AB83,AB51,AB45,AB38)/SQRT(COUNT(AB83,AB51,AB45,AB38))</f>
+        <v>1.2736146643857253</v>
       </c>
     </row>
     <row r="96" spans="1:45" x14ac:dyDescent="0.3">
@@ -11492,43 +11130,49 @@
         <v>0.13157894736842105</v>
       </c>
     </row>
+    <row r="98" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <f>COUNT(B69:B91,B28:B63,B2:B22)</f>
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="AK1:AK92 AI1:AI92 AM1:AM92 AM96:AM1048576 AI96:AI1048576 AK96:AK1048576">
-    <cfRule type="cellIs" dxfId="14" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="lessThan">
       <formula>0.0001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK93 AI93 AM93">
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="lessThan">
       <formula>0.0001</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="lessThan">
+  <conditionalFormatting sqref="D1:D93 D96:D1048576">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="lessThan">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="lessThan">
+  <conditionalFormatting sqref="G1:G93 G96:G1048576">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="lessThan">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="lessThan">
+  <conditionalFormatting sqref="J1:J93 J96:J1048576">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="lessThan">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V1:V1048576">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="lessThan">
+  <conditionalFormatting sqref="V1:V93 V96:V1048576">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y1:Y1048576">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThan">
+  <conditionalFormatting sqref="Y1:Y93 Y96:Y1048576">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB1:AB1048576">
+  <conditionalFormatting sqref="AB1:AB93 AB96:AB1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>10</formula>
     </cfRule>
